--- a/adapter_board/STLinkV2_UART_to_CSI_debug_v1/STLinkV2_UART_to_CSI_debug_v1_BOM.xlsx
+++ b/adapter_board/STLinkV2_UART_to_CSI_debug_v1/STLinkV2_UART_to_CSI_debug_v1_BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23923B02-8D87-417E-94C0-701FC8780EA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48233F0-E151-4EBD-899C-A241947FBCCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="255" windowWidth="15255" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,21 +43,6 @@
     <t>CONN HEADER SMD 14POS 1.27MM</t>
   </si>
   <si>
-    <t>20021121-00014T4LF</t>
-  </si>
-  <si>
-    <t>609-3730-ND</t>
-  </si>
-  <si>
-    <t>S9202-ND</t>
-  </si>
-  <si>
-    <t>SFH11-PBPC-D05-RA-BK</t>
-  </si>
-  <si>
-    <t>CONN HDR 10POS 0.1 GOLD PCB R/A</t>
-  </si>
-  <si>
     <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
   </si>
   <si>
@@ -65,19 +50,40 @@
   </si>
   <si>
     <t>EG5384CT-ND</t>
+  </si>
+  <si>
+    <t>609-3714-ND‎</t>
+  </si>
+  <si>
+    <t>‎20021111-00014T4LF</t>
+  </si>
+  <si>
+    <t>‎S9194-ND‎</t>
+  </si>
+  <si>
+    <t>‎SFH11-PBPC-D05-ST-BK‎</t>
+  </si>
+  <si>
+    <t>CONN HDR 10POS 0.1 GOLD PCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +392,7 @@
   <dimension ref="A3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,25 +429,25 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -448,16 +455,17 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>